--- a/document/question.xlsx
+++ b/document/question.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t xml:space="preserve">题目</t>
   </si>
@@ -70,19 +70,7 @@
     <t xml:space="preserve">title</t>
   </si>
   <si>
-    <t xml:space="preserve">单选题</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liaochuan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">廖川湖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liaochu</t>
+    <t xml:space="preserve">填空题</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -94,13 +82,10 @@
     <t xml:space="preserve">csd</t>
   </si>
   <si>
-    <t xml:space="preserve">多选题</t>
+    <t xml:space="preserve">判断题</t>
   </si>
   <si>
     <t xml:space="preserve">fdfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fddffd</t>
   </si>
 </sst>
 </file>
@@ -424,7 +409,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -489,55 +474,31 @@
       <c r="B2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>20</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>1.2</v>
+        <v>19</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/document/question.xlsx
+++ b/document/question.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="25">
   <si>
     <t xml:space="preserve">题目</t>
   </si>
@@ -70,7 +70,19 @@
     <t xml:space="preserve">title</t>
   </si>
   <si>
-    <t xml:space="preserve">填空题</t>
+    <t xml:space="preserve">单选题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -82,7 +94,7 @@
     <t xml:space="preserve">csd</t>
   </si>
   <si>
-    <t xml:space="preserve">判断题</t>
+    <t xml:space="preserve">d</t>
   </si>
   <si>
     <t xml:space="preserve">fdfd</t>
@@ -95,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -159,6 +171,12 @@
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -308,8 +326,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -406,10 +428,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -474,31 +496,637 @@
       <c r="B2" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>19</v>
+      </c>
       <c r="K2" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="0" t="s">
+      <c r="L4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>17</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
